--- a/data/trans_orig/dukeAFECT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>17.52639861071172</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>18.26430011155218</v>
+        <v>18.26430011155217</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>17.72168908084138</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>17.3596250029835</v>
+        <v>17.33760036529349</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.71376380744589</v>
+        <v>17.7053352100682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17.32626046071968</v>
+        <v>17.29871751890577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.70066071788534</v>
+        <v>17.7273817231609</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.38634429269867</v>
+        <v>17.39922028782876</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.79231503316071</v>
+        <v>17.78704371604059</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.24917468068785</v>
+        <v>17.21405636477526</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>18.01769537222849</v>
+        <v>18.02878416854331</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.48056144097883</v>
+        <v>17.50249549552459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.82115602248886</v>
+        <v>17.80841643980366</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.3617951186892</v>
+        <v>17.38008850331299</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>17.9463979907028</v>
+        <v>17.92590933182344</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.92725699317223</v>
+        <v>17.92498540681456</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.21662978498795</v>
+        <v>18.21903058321415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.85409622451184</v>
+        <v>17.82559353383185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.18883975245141</v>
+        <v>18.21211689126863</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.13986167957933</v>
+        <v>18.0967363990936</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.37980898090261</v>
+        <v>18.34628786414388</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.79166972665568</v>
+        <v>17.75917931039393</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.47165390397435</v>
+        <v>18.47556184051411</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.92336983621408</v>
+        <v>17.91710722595533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.21376744572586</v>
+        <v>18.20112612332999</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.73905522040536</v>
+        <v>17.74743101938038</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.28001084847508</v>
+        <v>18.27132134314784</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.39933474939765</v>
+        <v>17.34104045142771</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.68484213065974</v>
+        <v>17.65290263006937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.24298028122714</v>
+        <v>17.2198805663212</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.37859058728122</v>
+        <v>17.36785863626172</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.3885864402771</v>
+        <v>17.3987122256658</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.27879611314384</v>
+        <v>17.29045244498382</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.23848989112207</v>
+        <v>17.24201904325516</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.55868419303816</v>
+        <v>17.55671665204083</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.48325364251464</v>
+        <v>17.46536303882137</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.61360217759428</v>
+        <v>17.59840854485107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.3020681789836</v>
+        <v>17.31518215427125</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.53022895846783</v>
+        <v>17.51735192853335</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.03248249541267</v>
+        <v>18.03569786348593</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.23150584776001</v>
+        <v>18.22810243645178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.75556500440117</v>
+        <v>17.77923687458836</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.87851830710857</v>
+        <v>17.870171966546</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.97075456668886</v>
+        <v>17.94986514090106</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.90231583633385</v>
+        <v>17.90843296628177</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.76166306354259</v>
+        <v>17.76247584970532</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.01545995037527</v>
+        <v>18.01895511750975</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.92239087305091</v>
+        <v>17.91347485517579</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.99420580051115</v>
+        <v>18.00400763392486</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.68885706436114</v>
+        <v>17.69701255930471</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.86686940735102</v>
+        <v>17.85859179421156</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>16.62043951419084</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>17.62816533577406</v>
+        <v>17.62816533577407</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>17.35719701368509</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.14744900834719</v>
+        <v>17.14619853531347</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.75301208813944</v>
+        <v>17.76492985820112</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.80131433283928</v>
+        <v>16.82467778674131</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.38891374371086</v>
+        <v>17.36238600896528</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>16.69405599728633</v>
+        <v>16.69319313023616</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.4617791391576</v>
+        <v>17.52204135843968</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.03338572966527</v>
+        <v>16.07155879667775</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.22465536439777</v>
+        <v>17.22494208109582</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.13820411581759</v>
+        <v>17.12262894309075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.75872918718401</v>
+        <v>17.76329025358546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.71715515448883</v>
+        <v>16.73116975378458</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.41250188183173</v>
+        <v>17.41931729363956</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.6310321431065</v>
+        <v>17.65691961659077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.14549905592897</v>
+        <v>18.15282720125543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.28664006357095</v>
+        <v>17.30346047822009</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.9017824464724</v>
+        <v>17.89267395512081</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.71248197256154</v>
+        <v>17.70610518994218</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.0694901866365</v>
+        <v>18.09458973208702</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.13738740731893</v>
+        <v>17.15206981283827</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.9566791134168</v>
+        <v>17.97521833045381</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.57309484355356</v>
+        <v>17.56445396517578</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.08599042403246</v>
+        <v>18.07912451823835</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.16611075861517</v>
+        <v>17.16079903971192</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.82824492004795</v>
+        <v>17.83318197287033</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.25034792717441</v>
+        <v>17.23823887182334</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.40569093991469</v>
+        <v>17.39317132274211</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.93103648151385</v>
+        <v>16.93666340494708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.28190286757247</v>
+        <v>17.26594697295998</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>16.84213410595216</v>
+        <v>16.8820979387059</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.19963216625361</v>
+        <v>17.20307812525844</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.87053248390702</v>
+        <v>16.86325522576504</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.33270819712296</v>
+        <v>17.33143883863071</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.17969494682906</v>
+        <v>17.1631157350258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.36213400144259</v>
+        <v>17.38012568579708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.95279272820342</v>
+        <v>16.93918899642083</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.35775728775253</v>
+        <v>17.35004426047727</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.57991281586812</v>
+        <v>17.57248764723938</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.72682606104322</v>
+        <v>17.73921667680517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.23405834167662</v>
+        <v>17.23942733786976</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.64187167518445</v>
+        <v>17.62806733376827</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.32771297351682</v>
+        <v>17.34810358912344</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.63701211101396</v>
+        <v>17.61712125351177</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.26207410692135</v>
+        <v>17.23364094852185</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.69409456060946</v>
+        <v>17.69032283514807</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.4464098680595</v>
+        <v>17.4276970593849</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.63091680312762</v>
+        <v>17.63680463973741</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.1999177005617</v>
+        <v>17.18866192073677</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.61663696797807</v>
+        <v>17.6103930612346</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>16.68958161673924</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>16.6100917081639</v>
+        <v>16.61009170816391</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>16.90550679016326</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.77602517268257</v>
+        <v>16.71202401504878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.33218135093653</v>
+        <v>17.28279790338761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.56104269269765</v>
+        <v>16.58059146158331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.08930309485454</v>
+        <v>16.1028265321739</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.47297321873671</v>
+        <v>16.52825156766678</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.07128288805245</v>
+        <v>17.06017605975185</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.47032387578333</v>
+        <v>16.48172728013551</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.37790470274761</v>
+        <v>16.39058178390605</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.67538880863192</v>
+        <v>16.682169071222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.23014263373023</v>
+        <v>17.22899777562669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16.57773732164706</v>
+        <v>16.58004359780892</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.36638318398476</v>
+        <v>16.3513511355203</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.42013629614122</v>
+        <v>17.40410248106083</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.76232081051815</v>
+        <v>17.73174697205387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.02694420215791</v>
+        <v>17.02191107406841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.85048591140117</v>
+        <v>16.80403818789845</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.05948361056308</v>
+        <v>17.06485399940188</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.48729704370878</v>
+        <v>17.45718234500723</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.88413126725595</v>
+        <v>16.90586991322365</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.81430132182855</v>
+        <v>16.83784467399049</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.12837266855453</v>
+        <v>17.11348450918618</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.52657784370878</v>
+        <v>17.52300607049645</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16.89147050171142</v>
+        <v>16.89605558427674</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>16.74151255197815</v>
+        <v>16.7432291125782</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>18.24699034814594</v>
+        <v>18.23370048090691</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>18.0803601154474</v>
+        <v>18.07417296615137</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17.51592626654766</v>
+        <v>17.52967400460326</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18.17906921281913</v>
+        <v>18.19752159326786</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>16.88678450033976</v>
+        <v>16.89087352192714</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.45197464669087</v>
+        <v>17.436439625384</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>16.77168572031128</v>
+        <v>16.77521348659857</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>17.08244671253399</v>
+        <v>17.05548478562988</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>17.17807672564908</v>
+        <v>17.16901356997115</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17.60486259381592</v>
+        <v>17.61427607248695</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16.98081204896651</v>
+        <v>16.97924214702197</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>17.37269535852401</v>
+        <v>17.35656331712214</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.69191959777451</v>
+        <v>18.71141808867266</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.59789259013559</v>
+        <v>18.5846905563161</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.05710142172776</v>
+        <v>18.02997943099363</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.99629049761233</v>
+        <v>18.99000441990803</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>17.28355337342584</v>
+        <v>17.28430625468773</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>17.76791791558038</v>
+        <v>17.75281605280971</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>17.11595342646307</v>
+        <v>17.12218085775791</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>17.44360536072409</v>
+        <v>17.44379816718818</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>17.51691617117043</v>
+        <v>17.51058393771802</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17.89689646195082</v>
+        <v>17.89968237172493</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17.2643367294588</v>
+        <v>17.27356103365718</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>17.72419672742113</v>
+        <v>17.72981715051843</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>17.1100342116725</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>17.44920137547038</v>
+        <v>17.44920137547037</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>17.43038213268441</v>
+        <v>17.44818783834159</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.7167671147675</v>
+        <v>17.70921748058101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17.10657390667322</v>
+        <v>17.10928117401357</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.39120693286052</v>
+        <v>17.40047877684952</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>17.0664952353894</v>
+        <v>17.06273298061308</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.45495210670596</v>
+        <v>17.45688358057655</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>16.9252797051897</v>
+        <v>16.92930892888208</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>17.29629600436164</v>
+        <v>17.29916488132255</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.29143908998729</v>
+        <v>17.28556774045516</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17.6147446484894</v>
+        <v>17.60920994145672</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17.03891731972736</v>
+        <v>17.04206187118024</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>17.37207601535206</v>
+        <v>17.3751036615093</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.63593730943843</v>
+        <v>17.65068634835723</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.89817418925189</v>
+        <v>17.8937614819185</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.29565410749516</v>
+        <v>17.2861254667776</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.61206774293098</v>
+        <v>17.62171226768962</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.28836176631307</v>
+        <v>17.28782022807023</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.64956877707691</v>
+        <v>17.64134614450943</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.11294128467254</v>
+        <v>17.12264105314493</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.4825651040615</v>
+        <v>17.4772582126012</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.43083394595807</v>
+        <v>17.43803776929731</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17.7481912277374</v>
+        <v>17.74451079435422</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17.17390003662791</v>
+        <v>17.17527088483336</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.51392802601544</v>
+        <v>17.51965588971964</v>
       </c>
     </row>
     <row r="25">
